--- a/uploads/M1-S1-MAGI.xlsx
+++ b/uploads/M1-S1-MAGI.xlsx
@@ -1301,7 +1301,7 @@
       </c>
       <c r="AC7" s="17" t="inlineStr">
         <is>
-          <t>86h30</t>
+          <t>88h30</t>
         </is>
       </c>
       <c r="AD7" s="12" t="inlineStr">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="AC12" s="14" t="inlineStr">
         <is>
-          <t>46h30</t>
+          <t>48h30</t>
         </is>
       </c>
       <c r="AD12" s="15" t="inlineStr">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="AC16" s="14" t="inlineStr">
         <is>
-          <t>34h00</t>
+          <t>36h00</t>
         </is>
       </c>
       <c r="AD16" s="15" t="inlineStr">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="AC21" s="17" t="inlineStr">
         <is>
-          <t>64h45</t>
+          <t>66h45</t>
         </is>
       </c>
       <c r="AD21" s="12" t="inlineStr">

--- a/uploads/M1-S1-MAGI.xlsx
+++ b/uploads/M1-S1-MAGI.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="59610" yWindow="3390" windowWidth="21630" windowHeight="11250" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuil1" sheetId="1" state="visible" r:id="rId1"/>
@@ -525,15 +525,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD35"/>
+  <dimension ref="A1:AE35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG8" sqref="AG8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.21875" defaultRowHeight="14.4"/>
   <cols>
     <col width="18.44140625" customWidth="1" min="22" max="22"/>
+    <col width="20.33203125" customWidth="1" min="31" max="31"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -645,8 +646,9 @@
       <c r="AB1" s="3" t="n"/>
       <c r="AC1" s="3" t="n"/>
       <c r="AD1" s="3" t="n"/>
+      <c r="AE1" s="3" t="n"/>
     </row>
-    <row r="2">
+    <row r="2" ht="15" customHeight="1" thickBot="1">
       <c r="A2" s="4" t="inlineStr">
         <is>
           <t>CodeApprenant</t>
@@ -795,6 +797,11 @@
       <c r="AD2" s="8" t="inlineStr">
         <is>
           <t>Retards</t>
+        </is>
+      </c>
+      <c r="AE2" s="8" t="inlineStr">
+        <is>
+          <t>Appreciations</t>
         </is>
       </c>
     </row>
@@ -829,6 +836,7 @@
       <c r="AB3" s="12" t="n"/>
       <c r="AC3" s="10" t="n"/>
       <c r="AD3" s="12" t="n"/>
+      <c r="AE3" s="12" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="13" t="n">
@@ -949,6 +957,7 @@
           <t>00h00</t>
         </is>
       </c>
+      <c r="AE4" s="15" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="16" t="n">
@@ -1061,12 +1070,18 @@
       </c>
       <c r="AC5" s="17" t="inlineStr">
         <is>
+          <t>2h00</t>
+        </is>
+      </c>
+      <c r="AD5" s="12" t="inlineStr">
+        <is>
           <t>00h00</t>
         </is>
       </c>
-      <c r="AD5" s="12" t="inlineStr">
-        <is>
-          <t>00h00</t>
+      <c r="AE5" s="12" t="inlineStr">
+        <is>
+          <t>Rattrapage en Finance Immobilière
+Semestre 1 non-validé</t>
         </is>
       </c>
     </row>
@@ -1181,12 +1196,19 @@
       </c>
       <c r="AC6" s="14" t="inlineStr">
         <is>
-          <t>10h00</t>
+          <t>16h00</t>
         </is>
       </c>
       <c r="AD6" s="15" t="inlineStr">
         <is>
           <t>15 minutes</t>
+        </is>
+      </c>
+      <c r="AE6" s="15" t="inlineStr">
+        <is>
+          <t>Rattrapages en Stratégie et Solutions Immobilières, Finance Immobilière, ESPI Inside
+En attente de la note d'Immersion Professionnelle du S1
+Semestre 1 non validé</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1323,7 @@
       </c>
       <c r="AC7" s="17" t="inlineStr">
         <is>
-          <t>88h30</t>
+          <t>92h30</t>
         </is>
       </c>
       <c r="AD7" s="12" t="inlineStr">
@@ -1309,6 +1331,7 @@
           <t>00h00</t>
         </is>
       </c>
+      <c r="AE7" s="12" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="13" t="n">
@@ -1421,12 +1444,18 @@
       </c>
       <c r="AC8" s="14" t="inlineStr">
         <is>
-          <t>2h00</t>
+          <t>6h00</t>
         </is>
       </c>
       <c r="AD8" s="15" t="inlineStr">
         <is>
           <t>45 minutes</t>
+        </is>
+      </c>
+      <c r="AE8" s="15" t="inlineStr">
+        <is>
+          <t>30 crédits ECTS acquis, mais rattrapage en Projet Voltaire 
+Semestre 1 non validé</t>
         </is>
       </c>
     </row>
@@ -1549,6 +1578,11 @@
           <t>35 minutes</t>
         </is>
       </c>
+      <c r="AE9" s="12" t="inlineStr">
+        <is>
+          <t>Semestre 1 validé</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="13" t="n">
@@ -1661,12 +1695,17 @@
       </c>
       <c r="AC10" s="14" t="inlineStr">
         <is>
+          <t>6h00</t>
+        </is>
+      </c>
+      <c r="AD10" s="15" t="inlineStr">
+        <is>
           <t>00h00</t>
         </is>
       </c>
-      <c r="AD10" s="15" t="inlineStr">
-        <is>
-          <t>00h00</t>
+      <c r="AE10" s="15" t="inlineStr">
+        <is>
+          <t>Semestre 1 validé</t>
         </is>
       </c>
     </row>
@@ -1781,12 +1820,18 @@
       </c>
       <c r="AC11" s="17" t="inlineStr">
         <is>
-          <t>18h00</t>
+          <t>20h00</t>
         </is>
       </c>
       <c r="AD11" s="12" t="inlineStr">
         <is>
           <t>15 minutes</t>
+        </is>
+      </c>
+      <c r="AE11" s="12" t="inlineStr">
+        <is>
+          <t>Rattrapages en Finance Immobilière, Economie Immobilière I, Baux Commerciaux et Gestion Locative, Actifs Tertiaires en Copropriété
+Semestre 1 non validé</t>
         </is>
       </c>
     </row>
@@ -1901,12 +1946,19 @@
       </c>
       <c r="AC12" s="14" t="inlineStr">
         <is>
-          <t>48h30</t>
+          <t>58h30</t>
         </is>
       </c>
       <c r="AD12" s="15" t="inlineStr">
         <is>
           <t>55 minutes</t>
+        </is>
+      </c>
+      <c r="AE12" s="15" t="inlineStr">
+        <is>
+          <t>Rattrapages en Stratégie et Solutions Immobilières, Finance Immobilière, Economie Immobilière I, ESPI Inside, Baux Commerciaux et Gestion Locative, Actifs Tertiaires en Copropriété
+En attente de la note d'Immersion Professionnelle du S1
+Semestre 1 non validé</t>
         </is>
       </c>
     </row>
@@ -2021,12 +2073,18 @@
       </c>
       <c r="AC13" s="17" t="inlineStr">
         <is>
-          <t>4h00</t>
+          <t>10h00</t>
         </is>
       </c>
       <c r="AD13" s="12" t="inlineStr">
         <is>
           <t>00h00</t>
+        </is>
+      </c>
+      <c r="AE13" s="12" t="inlineStr">
+        <is>
+          <t>Rattrapages en ESPI Inside, Baux Commerciaux et Gestion Locative, Actifs Tertiaires en Copropriété
+Semestre 1 non validé</t>
         </is>
       </c>
     </row>
@@ -2141,12 +2199,18 @@
       </c>
       <c r="AC14" s="14" t="inlineStr">
         <is>
-          <t>25h30</t>
+          <t>31h30</t>
         </is>
       </c>
       <c r="AD14" s="15" t="inlineStr">
         <is>
           <t>45 minutes</t>
+        </is>
+      </c>
+      <c r="AE14" s="15" t="inlineStr">
+        <is>
+          <t>Rattrapages en ESPI Inside, Projet Voltaire, Actifs Tertiaires en Copropriété
+Semestre 1 non validé</t>
         </is>
       </c>
     </row>
@@ -2269,6 +2333,11 @@
           <t>00h00</t>
         </is>
       </c>
+      <c r="AE15" s="12" t="inlineStr">
+        <is>
+          <t>Semestre 1 validé</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="13" t="n">
@@ -2381,12 +2450,18 @@
       </c>
       <c r="AC16" s="14" t="inlineStr">
         <is>
-          <t>36h00</t>
+          <t>46h00</t>
         </is>
       </c>
       <c r="AD16" s="15" t="inlineStr">
         <is>
           <t>45 minutes</t>
+        </is>
+      </c>
+      <c r="AE16" s="15" t="inlineStr">
+        <is>
+          <t>Rattrapages en Finance Immobilière, ESPI Inside, Baux Commerciaux et Gestion Locative, Actifs Tertiaires en Copropriété
+Semestre 1 non validé</t>
         </is>
       </c>
     </row>
@@ -2501,12 +2576,18 @@
       </c>
       <c r="AC17" s="17" t="inlineStr">
         <is>
+          <t>2h00</t>
+        </is>
+      </c>
+      <c r="AD17" s="12" t="inlineStr">
+        <is>
           <t>00h00</t>
         </is>
       </c>
-      <c r="AD17" s="12" t="inlineStr">
-        <is>
-          <t>00h00</t>
+      <c r="AE17" s="12" t="inlineStr">
+        <is>
+          <t>Rattrapage en Finance Immobilière
+Semestre 1 non validé</t>
         </is>
       </c>
     </row>
@@ -2621,12 +2702,18 @@
       </c>
       <c r="AC18" s="14" t="inlineStr">
         <is>
+          <t>4h00</t>
+        </is>
+      </c>
+      <c r="AD18" s="15" t="inlineStr">
+        <is>
           <t>00h00</t>
         </is>
       </c>
-      <c r="AD18" s="15" t="inlineStr">
-        <is>
-          <t>00h00</t>
+      <c r="AE18" s="15" t="inlineStr">
+        <is>
+          <t>30 crédits ECTS acquis, mais rattrapage en ESPI Inside 
+Semestre 1 non validé</t>
         </is>
       </c>
     </row>
@@ -2741,12 +2828,18 @@
       </c>
       <c r="AC19" s="17" t="inlineStr">
         <is>
-          <t>22h30</t>
+          <t>28h30</t>
         </is>
       </c>
       <c r="AD19" s="12" t="inlineStr">
         <is>
           <t>1h10</t>
+        </is>
+      </c>
+      <c r="AE19" s="12" t="inlineStr">
+        <is>
+          <t>Rattrapages en Baux Commerciaux et Gestion Locative, Actifs Tertiaires en Copropriété
+Semestre 1 non validé</t>
         </is>
       </c>
     </row>
@@ -2861,12 +2954,18 @@
       </c>
       <c r="AC20" s="14" t="inlineStr">
         <is>
-          <t>00h00</t>
+          <t>4h00</t>
         </is>
       </c>
       <c r="AD20" s="15" t="inlineStr">
         <is>
           <t>15 minutes</t>
+        </is>
+      </c>
+      <c r="AE20" s="15" t="inlineStr">
+        <is>
+          <t>Rattrapage en Actifs Tertiaires en Copropriété
+Semestre 1 non validé</t>
         </is>
       </c>
     </row>
@@ -2981,12 +3080,18 @@
       </c>
       <c r="AC21" s="17" t="inlineStr">
         <is>
-          <t>66h45</t>
+          <t>90h45</t>
         </is>
       </c>
       <c r="AD21" s="12" t="inlineStr">
         <is>
           <t>2h30</t>
+        </is>
+      </c>
+      <c r="AE21" s="12" t="inlineStr">
+        <is>
+          <t>Rattrapages en Finance Immobilière, Real Estate English, Projet voltaire, Baux Commerciaux et Gestion Locative, Actifs Tertiaires en Copropriété
+Semestre 1 non validé</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3201,7 @@
       </c>
       <c r="AB22" s="15" t="inlineStr">
         <is>
-          <t>00h00</t>
+          <t>4h00</t>
         </is>
       </c>
       <c r="AC22" s="14" t="inlineStr">
@@ -3107,6 +3212,12 @@
       <c r="AD22" s="15" t="inlineStr">
         <is>
           <t>2h00</t>
+        </is>
+      </c>
+      <c r="AE22" s="15" t="inlineStr">
+        <is>
+          <t>Rattrapage en Finance Immobilière
+Semestre 1 non validé</t>
         </is>
       </c>
     </row>
@@ -3221,12 +3332,18 @@
       </c>
       <c r="AC23" s="17" t="inlineStr">
         <is>
-          <t>53h00</t>
+          <t>57h00</t>
         </is>
       </c>
       <c r="AD23" s="12" t="inlineStr">
         <is>
-          <t>49 minutes</t>
+          <t>1h04</t>
+        </is>
+      </c>
+      <c r="AE23" s="12" t="inlineStr">
+        <is>
+          <t>Rattrapages en Finance Immobilière, Economie Immobilière I, ESPI Inside, Projet Voltaire
+Semestre 1 non validé</t>
         </is>
       </c>
     </row>
@@ -3341,12 +3458,18 @@
       </c>
       <c r="AC24" s="14" t="inlineStr">
         <is>
-          <t>4h00</t>
+          <t>8h00</t>
         </is>
       </c>
       <c r="AD24" s="15" t="inlineStr">
         <is>
           <t>00h00</t>
+        </is>
+      </c>
+      <c r="AE24" s="15" t="inlineStr">
+        <is>
+          <t>Rattrapages en Finance Immobilière, Economie Immobilière I 
+Semestre 1 non validé</t>
         </is>
       </c>
     </row>
@@ -3469,6 +3592,11 @@
           <t>00h00</t>
         </is>
       </c>
+      <c r="AE25" s="12" t="inlineStr">
+        <is>
+          <t>Semestre 1 validé</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="13" t="n">
@@ -3589,6 +3717,11 @@
           <t>00h00</t>
         </is>
       </c>
+      <c r="AE26" s="15" t="inlineStr">
+        <is>
+          <t>Semestre 1 validé</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="16" t="n">
@@ -3696,7 +3829,7 @@
       </c>
       <c r="AB27" s="12" t="inlineStr">
         <is>
-          <t>48h30</t>
+          <t>52h30</t>
         </is>
       </c>
       <c r="AC27" s="17" t="inlineStr">
@@ -3707,6 +3840,11 @@
       <c r="AD27" s="12" t="inlineStr">
         <is>
           <t>1h00</t>
+        </is>
+      </c>
+      <c r="AE27" s="12" t="inlineStr">
+        <is>
+          <t>Semestre 1 validé</t>
         </is>
       </c>
     </row>
@@ -3821,12 +3959,18 @@
       </c>
       <c r="AC28" s="14" t="inlineStr">
         <is>
-          <t>8h00</t>
+          <t>12h00</t>
         </is>
       </c>
       <c r="AD28" s="15" t="inlineStr">
         <is>
           <t>00h00</t>
+        </is>
+      </c>
+      <c r="AE28" s="15" t="inlineStr">
+        <is>
+          <t>Rattrapages en Stratégie et Solutions Immobilières, Finance Immobilière, Economie Immobilière I 
+Semestre 1 non validé</t>
         </is>
       </c>
     </row>
@@ -3941,12 +4085,17 @@
       </c>
       <c r="AC29" s="17" t="inlineStr">
         <is>
-          <t>6h00</t>
+          <t>12h00</t>
         </is>
       </c>
       <c r="AD29" s="12" t="inlineStr">
         <is>
           <t>15 minutes</t>
+        </is>
+      </c>
+      <c r="AE29" s="12" t="inlineStr">
+        <is>
+          <t>Semestre 1 validé</t>
         </is>
       </c>
     </row>
@@ -4061,12 +4210,18 @@
       </c>
       <c r="AC30" s="14" t="inlineStr">
         <is>
-          <t>1h45</t>
+          <t>3h45</t>
         </is>
       </c>
       <c r="AD30" s="15" t="inlineStr">
         <is>
           <t>00h00</t>
+        </is>
+      </c>
+      <c r="AE30" s="15" t="inlineStr">
+        <is>
+          <t>Rattrapages en Finance Immobilière, ESPI Inside
+Semestre 1 non validé</t>
         </is>
       </c>
     </row>
@@ -4189,6 +4344,11 @@
           <t>00h00</t>
         </is>
       </c>
+      <c r="AE31" s="12" t="inlineStr">
+        <is>
+          <t>Semestre 1 validé</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="13" t="n">
@@ -4301,12 +4461,18 @@
       </c>
       <c r="AC32" s="14" t="inlineStr">
         <is>
-          <t>2h00</t>
+          <t>8h00</t>
         </is>
       </c>
       <c r="AD32" s="15" t="inlineStr">
         <is>
           <t>00h00</t>
+        </is>
+      </c>
+      <c r="AE32" s="15" t="inlineStr">
+        <is>
+          <t>Rattrapage en Finance Immobilière
+Semestre 1 non validé</t>
         </is>
       </c>
     </row>
